--- a/projects/brazil_td/config/inventory.xlsx
+++ b/projects/brazil_td/config/inventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -403,10 +403,10 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="1" sqref="I2:I17 K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.94"/>
@@ -950,10 +950,10 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I2:I17 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4379,10 +4379,10 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="I2:I17 N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="17.67"/>
@@ -6520,11 +6520,11 @@
   </sheetPr>
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.67"/>
@@ -7236,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>17199.48</v>
+        <v>17160.57</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>17199.48</v>
+        <v>17160.57</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>14024.336</v>
@@ -7319,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>19019.51</v>
+        <v>17161.57</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>19019.51</v>
+        <v>17161.57</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>9972.34199999999</v>
@@ -7402,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>23264</v>
+        <v>17162.57</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>23264</v>
+        <v>17162.57</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>3873</v>
@@ -7485,10 +7485,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>30577.29</v>
+        <v>17163.57</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>30577.29</v>
+        <v>17163.57</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>3873</v>
@@ -7568,10 +7568,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>41603.72</v>
+        <v>17164.57</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>41603.72</v>
+        <v>17164.57</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>3873</v>
@@ -7651,10 +7651,10 @@
         <v>13767.066</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>56987.63</v>
+        <v>17165.57</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>56987.63</v>
+        <v>17165.57</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>3873</v>
@@ -7734,10 +7734,10 @@
         <v>13589.112</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>77373.36</v>
+        <v>17166.57</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>77373.36</v>
+        <v>17166.57</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>3873</v>
@@ -7817,10 +7817,10 @@
         <v>13483.25</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>103405.25</v>
+        <v>17167.57</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>103405.25</v>
+        <v>17167.57</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>3873</v>
@@ -7900,10 +7900,10 @@
         <v>13429.728</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>135727.64</v>
+        <v>17168.57</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>135727.64</v>
+        <v>17168.57</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>3873</v>
@@ -9971,10 +9971,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="I2:I17 D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
@@ -10044,10 +10044,10 @@
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="I2:I17 S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -11146,11 +11146,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="I2:I17 B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/projects/brazil_td/config/inventory.xlsx
+++ b/projects/brazil_td/config/inventory.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="fleet_age" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="fleet" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="tfs" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="mileage" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="fuel" sheetId="5" state="visible" r:id="rId6"/>
@@ -17,7 +17,7 @@
     <sheet name="met" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">fleet_age!$A$1:$AA$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">fleet!$A$1:$AA$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t xml:space="preserve">family</t>
   </si>
@@ -49,6 +49,15 @@
     <t xml:space="preserve">trips_day</t>
   </si>
   <si>
+    <t xml:space="preserve">survival</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival_param_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival_param_b</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC</t>
   </si>
   <si>
@@ -62,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">1400cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gompertz</t>
   </si>
   <si>
     <t xml:space="preserve">PC_E</t>
@@ -122,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double_logistic</t>
   </si>
   <si>
     <t xml:space="preserve">TRUCKS</t>
@@ -268,6 +283,9 @@
     <t xml:space="preserve">Year</t>
   </si>
   <si>
+    <t xml:space="preserve">PC_ELEC</t>
+  </si>
+  <si>
     <t xml:space="preserve">hour</t>
   </si>
   <si>
@@ -275,6 +293,12 @@
   </si>
   <si>
     <t xml:space="preserve">consumption_lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3x1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
   </si>
   <si>
     <t xml:space="preserve">Month</t>
@@ -287,8 +311,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -362,7 +388,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,7 +397,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,17 +430,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="1" sqref="I2:I17 K13"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.94"/>
@@ -434,501 +468,744 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-0.137</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>-0.137</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>-0.137</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>-0.137</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>37</v>
+      <c r="H12" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="G26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>-0.141</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>4.5</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>-0.141</v>
       </c>
     </row>
   </sheetData>
@@ -943,99 +1220,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="I2:I17 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,82 +1323,85 @@
         <v>2018</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>31183.3753887973</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>81493</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>248133.88671611</v>
+        <v>1969672</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>293212.622584796</v>
+        <v>1969672</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>192.747847683674</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>18244.9220365645</v>
+        <v>198480</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>21559.4956013273</v>
+        <v>198480</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>32764.0000000001</v>
+        <v>174296</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>696.000000000001</v>
+        <v>12872.9885920819</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2609</v>
+        <v>42594.0369681365</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>1647</v>
+        <v>24285.5304312638</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>4200.00000000001</v>
+        <v>44797.7001082107</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>9103.00000000004</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>2259.726</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>1062.2205</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>1343.0535</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>76817.9999999998</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>10974</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>3657.99999999999</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>37204.5965317504</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>5827.22596280429</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>1792.99260393978</v>
-      </c>
-      <c r="Y2" s="0" t="n">
-        <v>43963.5934682496</v>
-      </c>
-      <c r="Z2" s="0" t="n">
-        <v>6885.86403719571</v>
-      </c>
-      <c r="AA2" s="0" t="n">
-        <v>2118.72739606022</v>
+        <v>49745.743900307</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>165642.461617692</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>40071.0833276806</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>75005.455054627</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <f aca="false">B2*0.58*0.85</f>
+        <v>40176.049</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <f aca="false">B2*0.58*0.1</f>
+        <v>4726.594</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <f aca="false">B2*0.58*0.05</f>
+        <v>2363.297</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <f aca="false">D2*0.2*0.85</f>
+        <v>334844.24</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <f aca="false">D2*0.2*0.1</f>
+        <v>39393.44</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <f aca="false">D2*0.2*0.05</f>
+        <v>19696.72</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <f aca="false">V2</f>
+        <v>334844.24</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <f aca="false">W2</f>
+        <v>39393.44</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <f aca="false">X2</f>
+        <v>19696.72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,82 +1409,85 @@
         <v>2017</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>26616.6337901458</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
+        <v>68144</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>215417.386066222</v>
+        <v>1739014</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>254552.48194739</v>
+        <v>1739014</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>285.379398777053</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>18648.9253825465</v>
+        <v>188177</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>22036.8946465611</v>
+        <v>188177</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>22703.9949956294</v>
+        <v>130447</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>428.502558015141</v>
+        <v>9634.43075498757</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>2738.52089349676</v>
+        <v>31878.323887998</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>988.477491784926</v>
+        <v>18175.8307027532</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3117.35610956017</v>
+        <v>33527.5943568169</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>5368.9422780397</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>1623.19549581299</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>629.12498489954</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>1062.35278008589</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>62027.8176</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>8861.11679999999</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <v>2953.7056</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>28120.7598606956</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>4404.45636372341</v>
-      </c>
-      <c r="X3" s="0" t="n">
-        <v>1355.21734268413</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>33229.4869393044</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>5204.61843627659</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>1601.42105731587</v>
+        <v>37230.8202974443</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>162854.404410508</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>39396.6157329567</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>73742.9798565353</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <f aca="false">B3*0.58*0.85</f>
+        <v>33594.992</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <f aca="false">B3*0.58*0.1</f>
+        <v>3952.352</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <f aca="false">B3*0.58*0.05</f>
+        <v>1976.176</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <f aca="false">D3*0.2*0.85</f>
+        <v>295632.38</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <f aca="false">D3*0.2*0.1</f>
+        <v>34780.28</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <f aca="false">D3*0.2*0.05</f>
+        <v>17390.14</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <f aca="false">V3</f>
+        <v>295632.38</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <f aca="false">W3</f>
+        <v>34780.28</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <f aca="false">X3</f>
+        <v>17390.14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,82 +1495,85 @@
         <v>2016</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>31046.7309233483</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>79490</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>194995.003356245</v>
+        <v>1572798</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>230419.944174855</v>
+        <v>1572798</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>311.890774834212</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>18207.852099779</v>
+        <v>177934</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>21515.6911313784</v>
+        <v>177934</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>23073.9280523274</v>
+        <v>121358</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>501.324280844464</v>
+        <v>8963.14401683275</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>2967.19531819286</v>
+        <v>29657.1759442507</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>835.85636239096</v>
+        <v>16909.4150300484</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>3197.4822751781</v>
+        <v>31191.5321621393</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>4311.95742503271</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>1484.90220355403</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>424.333546291563</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>742.848914476666</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>41161.516368</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>5880.216624</v>
-      </c>
-      <c r="U4" s="0" t="n">
-        <v>1960.072208</v>
-      </c>
-      <c r="V4" s="0" t="n">
-        <v>26570.6670760047</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>4161.67074684411</v>
-      </c>
-      <c r="X4" s="0" t="n">
-        <v>1280.51407595203</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>31397.7872199953</v>
-      </c>
-      <c r="Z4" s="0" t="n">
-        <v>4917.72570915589</v>
-      </c>
-      <c r="AA4" s="0" t="n">
-        <v>1513.14637204797</v>
+        <v>34636.7328467289</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>161446.509279007</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>39056.0274406793</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>73105.4632803137</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <f aca="false">B4*0.58*0.85</f>
+        <v>39188.57</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <f aca="false">B4*0.58*0.1</f>
+        <v>4610.42</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <f aca="false">B4*0.58*0.05</f>
+        <v>2305.21</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <f aca="false">D4*0.2*0.85</f>
+        <v>267375.66</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <f aca="false">D4*0.2*0.1</f>
+        <v>31455.96</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <f aca="false">D4*0.2*0.05</f>
+        <v>15727.98</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <f aca="false">V4</f>
+        <v>267375.66</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <f aca="false">W4</f>
+        <v>31455.96</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <f aca="false">X4</f>
+        <v>15727.98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,82 +1581,85 @@
         <v>2015</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>48907.1424774599</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>133922</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>241824.269938555</v>
+        <v>1959868</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>285756.731302327</v>
+        <v>1959868</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>769.63500921209</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>2228</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>22302.4171789849</v>
+        <v>234136</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>26354.1200179241</v>
+        <v>234136</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>39474.7962864254</v>
+        <v>121153</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>491.099170039514</v>
+        <v>8948.00332134131</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>3680.94030826989</v>
+        <v>29607.0785376638</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1169.23986262691</v>
+        <v>16880.8513582578</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>4328.67523610812</v>
+        <v>31138.8428949032</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>4334.20355697159</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>2036.32639644943</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>488.748319707356</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>1222.99522024931</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>52670.05575552</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>7524.29367936</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>2508.09789312</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>35873.6344006526</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>5618.76201456005</v>
-      </c>
-      <c r="X5" s="0" t="n">
-        <v>1728.84985063386</v>
-      </c>
-      <c r="Y5" s="0" t="n">
-        <v>42390.8340915074</v>
-      </c>
-      <c r="Z5" s="0" t="n">
-        <v>6639.52823119995</v>
-      </c>
-      <c r="AA5" s="0" t="n">
-        <v>2042.93176344614</v>
+        <v>34578.2238878339</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>159158.237141555</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>38502.46440738</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>72069.2984510651</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <f aca="false">B5*0.58*0.85</f>
+        <v>66023.546</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <f aca="false">B5*0.58*0.1</f>
+        <v>7767.476</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <f aca="false">B5*0.58*0.05</f>
+        <v>3883.738</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <f aca="false">D5*0.2*0.85</f>
+        <v>333177.56</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <f aca="false">D5*0.2*0.1</f>
+        <v>39197.36</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <f aca="false">D5*0.2*0.05</f>
+        <v>19598.68</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <f aca="false">V5</f>
+        <v>333177.56</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <f aca="false">W5</f>
+        <v>39197.36</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <f aca="false">X5</f>
+        <v>19598.68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,82 +1667,85 @@
         <v>2014</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>34511.6327519554</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>180561</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>286359.08334723</v>
+        <v>2588367</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>338382.22961172</v>
+        <v>2588367</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>28793.6581472413</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>58217.0895975954</v>
+        <v>352127</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>68793.4475458999</v>
+        <v>352127</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>43044.628767903</v>
+        <v>182372</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>498.477014960662</v>
+        <v>13469.4581373937</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>5488.6167553927</v>
+        <v>44567.6304100668</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>2289.23555524125</v>
+        <v>25410.7997648279</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>8714.84590967132</v>
+        <v>46873.4002164972</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>10149.4215918651</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>4161.72852413345</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>887.268533113695</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>1920.90500963185</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>70325.2130529985</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>10046.4590075712</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>3348.8196691904</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>30601.5107557572</v>
-      </c>
-      <c r="W6" s="0" t="n">
-        <v>4793.00770873305</v>
-      </c>
-      <c r="X6" s="0" t="n">
-        <v>1474.77160268709</v>
-      </c>
-      <c r="Y6" s="0" t="n">
-        <v>36160.9183755628</v>
-      </c>
-      <c r="Z6" s="0" t="n">
-        <v>5663.75829978695</v>
-      </c>
-      <c r="AA6" s="0" t="n">
-        <v>1742.69486147291</v>
+        <v>52050.7114712144</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>155755.922251264</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>37679.3998251201</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>70528.677923616</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <f aca="false">B6*0.58*0.85</f>
+        <v>89016.573</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <f aca="false">B6*0.58*0.1</f>
+        <v>10472.538</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <f aca="false">B6*0.58*0.05</f>
+        <v>5236.269</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <f aca="false">D6*0.2*0.85</f>
+        <v>440022.39</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <f aca="false">D6*0.2*0.1</f>
+        <v>51767.34</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <f aca="false">D6*0.2*0.05</f>
+        <v>25883.67</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <f aca="false">V6</f>
+        <v>440022.39</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <f aca="false">W6</f>
+        <v>51767.34</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <f aca="false">X6</f>
+        <v>25883.67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,82 +1753,85 @@
         <v>2013</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>37349.4716396266</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>182046</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>324815.684830483</v>
+        <v>2833091</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>383825.281045899</v>
+        <v>2833091</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>28605.9026197213</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>7063</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>60795.3126602441</v>
+        <v>335989</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>71840.0590176847</v>
+        <v>335989</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>38469.6744670275</v>
+        <v>196049</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>864.802171528229</v>
+        <v>14479.6010263521</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>5788.79124254889</v>
+        <v>47909.982750988</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>2314.82187680146</v>
+        <v>27316.4843457041</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>8949.31323488097</v>
+        <v>50388.6739140003</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>12324.2992195499</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>3839.38427586045</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>928.554506055861</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>1460.46344756345</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>71600.9974525844</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>10228.7139217978</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>3409.57130726592</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>31573.6957276942</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>4945.27764409668</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>1521.62389049129</v>
-      </c>
-      <c r="Y7" s="0" t="n">
-        <v>37309.721181305</v>
-      </c>
-      <c r="Z7" s="0" t="n">
-        <v>5843.69126936102</v>
-      </c>
-      <c r="AA7" s="0" t="n">
-        <v>1798.05885211108</v>
+        <v>55954.2579629555</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>149210.921078335</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>36096.0782249768</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>67565.0006966883</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <f aca="false">B7*0.58*0.85</f>
+        <v>89748.678</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <f aca="false">B7*0.58*0.1</f>
+        <v>10558.668</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <f aca="false">B7*0.58*0.05</f>
+        <v>5279.334</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <f aca="false">D7*0.2*0.85</f>
+        <v>481625.47</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <f aca="false">D7*0.2*0.1</f>
+        <v>56661.82</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <f aca="false">D7*0.2*0.05</f>
+        <v>28330.91</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <f aca="false">V7</f>
+        <v>481625.47</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <f aca="false">W7</f>
+        <v>56661.82</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <f aca="false">X7</f>
+        <v>28330.91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,82 +1839,85 @@
         <v>2012</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>47022.8743213058</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>258950</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>325811.262098755</v>
+        <v>2834334</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>385001.725850273</v>
+        <v>2834334</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>46111.6604446439</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
+        <v>14965</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>52117.4587754835</v>
+        <v>328488</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>61585.6905812227</v>
+        <v>328488</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>40805.3741835595</v>
+        <v>175501</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1055.09436552891</v>
+        <v>12961.9863387512</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>6178.27585811705</v>
+        <v>42888.5119678302</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>2213.67884825084</v>
+        <v>24453.4290873986</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>8787.40474767461</v>
+        <v>45107.4101912326</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>9606.91185455267</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>4462.94904077574</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>1041.57420397797</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>1407.02766066423</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>94660.106542301</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>13522.8723631859</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>4507.62412106196</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>30751.9582083838</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>4816.57176757819</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>1482.02208233175</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>36338.6977701053</v>
-      </c>
-      <c r="Z8" s="0" t="n">
-        <v>5691.60326519721</v>
-      </c>
-      <c r="AA8" s="0" t="n">
-        <v>1751.2625431376</v>
+        <v>50089.6624147874</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>143443.035533313</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>34700.7510845692</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>64953.2133821176</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <f aca="false">B8*0.58*0.85</f>
+        <v>127662.35</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <f aca="false">B8*0.58*0.1</f>
+        <v>15019.1</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <f aca="false">B8*0.58*0.05</f>
+        <v>7509.55</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <f aca="false">D8*0.2*0.85</f>
+        <v>481836.78</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <f aca="false">D8*0.2*0.1</f>
+        <v>56686.68</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <f aca="false">D8*0.2*0.05</f>
+        <v>28343.34</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <f aca="false">V8</f>
+        <v>481836.78</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <f aca="false">W8</f>
+        <v>56686.68</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <f aca="false">X8</f>
+        <v>28343.34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,82 +1925,85 @@
         <v>2011</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>65934.6201747333</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>350848</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>297109.228363651</v>
+        <v>2524402</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>351085.364419897</v>
+        <v>2524402</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>56887.3231440444</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>25956</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>47360.6461191237</v>
+        <v>323669</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>55964.7029258301</v>
+        <v>323669</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>33724.6864842418</v>
+        <v>174552</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1560.62326162437</v>
+        <v>12891.8959971835</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>7662.36887723622</v>
+        <v>42656.5976319719</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2869.27909453038</v>
+        <v>24321.2001872559</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>11406.4473883482</v>
+        <v>44863.4974370519</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>10536.9629097161</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>5331.53685034089</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>1174.98478007122</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>1719.76097465399</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>111794.579400108</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>15970.6542000154</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>5323.55140000513</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>33459.7326550325</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>5240.6810182581</v>
-      </c>
-      <c r="X9" s="0" t="n">
-        <v>1612.51723638711</v>
-      </c>
-      <c r="Y9" s="0" t="n">
-        <v>39538.3963577404</v>
-      </c>
-      <c r="Z9" s="0" t="n">
-        <v>6192.76087530873</v>
-      </c>
-      <c r="AA9" s="0" t="n">
-        <v>1905.46488471038</v>
+        <v>49818.8087465368</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>136563.467495522</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>33036.493373059</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>61838.0391314188</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <f aca="false">B9*0.58*0.85</f>
+        <v>172968.064</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <f aca="false">B9*0.58*0.1</f>
+        <v>20349.184</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <f aca="false">B9*0.58*0.05</f>
+        <v>10174.592</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <f aca="false">D9*0.2*0.85</f>
+        <v>429148.34</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <f aca="false">D9*0.2*0.1</f>
+        <v>50488.04</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <f aca="false">D9*0.2*0.05</f>
+        <v>25244.02</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <f aca="false">V9</f>
+        <v>429148.34</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <f aca="false">W9</f>
+        <v>50488.04</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <f aca="false">X9</f>
+        <v>25244.02</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,82 +2011,85 @@
         <v>2010</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>39743.8505867163</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>264330</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>305545.788481625</v>
+        <v>2570578</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>361054.603005257</v>
+        <v>2570578</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>43970.4392124808</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0</v>
+        <v>16347</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>39664.7224842542</v>
+        <v>305595</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>46870.6530076338</v>
+        <v>305595</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>23585.7192435619</v>
+        <v>150536</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>1442.68723194604</v>
+        <v>11118.1450560979</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>6775.89339731921</v>
+        <v>36787.6253559198</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>2797.1554224858</v>
+        <v>20974.9312032447</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>9863.95456260782</v>
+        <v>38690.8855251389</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>10242.4872727135</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>4107.83691941593</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>940.826531421654</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>1358.07631755248</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>94282.6439567014</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>13468.9491366716</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>4489.64971222388</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>10661.40576512</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>1669.8587342959</v>
-      </c>
-      <c r="X10" s="0" t="n">
-        <v>513.802687475661</v>
-      </c>
-      <c r="Y10" s="0" t="n">
-        <v>12598.274206731</v>
-      </c>
-      <c r="Z10" s="0" t="n">
-        <v>1973.22367093378</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <v>607.1457449027</v>
+        <v>42964.4128595987</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>127760.287501028</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>30906.8887073055</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>57851.8237916663</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <f aca="false">B10*0.58*0.85</f>
+        <v>130314.69</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <f aca="false">B10*0.58*0.1</f>
+        <v>15331.14</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <f aca="false">B10*0.58*0.05</f>
+        <v>7665.57</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <f aca="false">D10*0.2*0.85</f>
+        <v>436998.26</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <f aca="false">D10*0.2*0.1</f>
+        <v>51411.56</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <f aca="false">D10*0.2*0.05</f>
+        <v>25705.78</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <f aca="false">V10</f>
+        <v>436998.26</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <f aca="false">W10</f>
+        <v>51411.56</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <f aca="false">X10</f>
+        <v>25705.78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,81 +2097,78 @@
         <v>2009</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>33248.5174885616</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>210281</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>281807.823751633</v>
+        <v>2416111</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>333004.138050949</v>
+        <v>2416111</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>29838.8990451977</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>0</v>
+        <v>11407</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>31607.3326407166</v>
+        <v>236187</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>37349.4689465678</v>
+        <v>236187</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>21893.8648223021</v>
+        <v>117401</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>1233.73903168725</v>
+        <v>8670.89166532228</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>4763.74713238161</v>
+        <v>28690.1738083272</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>2124.50600022431</v>
+        <v>16358.0664969982</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>6422.09185775883</v>
+        <v>30174.5007940747</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>5748.52206006969</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>2840.92792508277</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>633.794652386596</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>827.718186604696</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>118150.310943817</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>16878.6158491167</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>5626.20528303888</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="0" t="n">
+        <v>33507.3672352776</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>120372.083418244</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>29119.5852674033</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>54506.3313143528</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <f aca="false">B11*0.58*0.85</f>
+        <v>103668.533</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <f aca="false">B11*0.58*0.1</f>
+        <v>12196.298</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <f aca="false">B11*0.58*0.05</f>
+        <v>6098.149</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,81 +2177,78 @@
         <v>2008</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>38263.8667782622</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>206815</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>242075.405816</v>
+        <v>2113289</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>286053.491290352</v>
+        <v>2113289</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>25529.1684789837</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
+        <v>10201</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>27591.9614573861</v>
+        <v>215962</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>32604.6211916025</v>
+        <v>215962</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>14281.1847349739</v>
+        <v>103711</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>1783.04843482195</v>
+        <v>7659.78863469851</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>5039.82680302365</v>
+        <v>25344.6445586956</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>2360.19149239098</v>
+        <v>14450.5705613256</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>7409.54800534354</v>
+        <v>26655.8858259664</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>7698.02026631629</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>4057.74104826701</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>877.287801078411</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>1599.76010784887</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>154627.420833823</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>22089.631547689</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>7363.21051589635</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="0" t="n">
+        <v>29600.1104193139</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>114968.267988954</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>27812.3314615872</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>52059.4005494588</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <f aca="false">B12*0.58*0.85</f>
+        <v>101959.795</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <f aca="false">B12*0.58*0.1</f>
+        <v>11995.27</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <f aca="false">B12*0.58*0.05</f>
+        <v>5997.635</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1956,81 +2257,78 @@
         <v>2007</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>51649.6983334987</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>233440</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>197324.888174087</v>
+        <v>1834259</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>233173.101540021</v>
+        <v>1834259</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>16628.9034281477</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>0</v>
+        <v>12211</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>20675.6848513443</v>
+        <v>168821</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>24431.8575718573</v>
+        <v>168821</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>11023.1662227749</v>
+        <v>74467</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1616.70309073134</v>
+        <v>5499.91303005557</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>4293.62986402071</v>
+        <v>18198.0662258814</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>2139.86607864111</v>
+        <v>10375.8582791626</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>5459.3238141559</v>
+        <v>19139.569089125</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>5242.48151312633</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>3427.10587393234</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>827.837869708441</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>1506.03205051521</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>142646.185450526</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>20378.0264929323</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>6792.67549764409</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="0" t="n">
+        <v>21253.5933757755</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>107357.019329595</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>25971.0706141071</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>48612.9100562979</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <f aca="false">B13*0.58*0.85</f>
+        <v>115085.92</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <f aca="false">B13*0.58*0.1</f>
+        <v>13539.52</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <f aca="false">B13*0.58*0.05</f>
+        <v>6769.76</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2039,81 +2337,84 @@
         <v>2006</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>67810.3735632259</v>
+        <v>283240</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>710.575377901479</v>
+        <v>1651</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>130255.691814812</v>
+        <v>1334342</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>153919.375983152</v>
+        <v>1334342</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>13259.282101958</v>
+        <v>33319</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>85.2939813119246</v>
+        <v>212</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>12271.8943781417</v>
+        <v>95992</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>14501.3419260035</v>
+        <v>95992</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>8764.30333885205</v>
+        <v>69813</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1449.84425131766</v>
+        <v>5156.1823138742</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>3595.13015185619</v>
+        <v>17060.7329075625</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1774.03649378677</v>
+        <v>9727.39326202449</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>3797.30856124456</v>
+        <v>17943.3942124576</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>3567.41664403755</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>2432.47435229874</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>755.433447912554</v>
-      </c>
-      <c r="R14" s="0" t="n">
-        <v>1144.35891120432</v>
-      </c>
-      <c r="S14" s="0" t="n">
-        <v>106046.533426954</v>
-      </c>
-      <c r="T14" s="0" t="n">
-        <v>15149.5047752791</v>
-      </c>
-      <c r="U14" s="0" t="n">
-        <v>5049.83492509303</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="0" t="n">
+        <v>19925.2973040812</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>100859.223358057</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <v>24399.1685711232</v>
+      </c>
+      <c r="R14" s="2" t="n">
+        <v>45670.6080708194</v>
+      </c>
+      <c r="S14" s="2" t="n">
+        <f aca="false">B14*0.58*0.85</f>
+        <v>139637.32</v>
+      </c>
+      <c r="T14" s="2" t="n">
+        <f aca="false">B14*0.58*0.1</f>
+        <v>16427.92</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <f aca="false">B14*0.58*0.05</f>
+        <v>8213.96</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2122,81 +2423,84 @@
         <v>2005</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>119401.511644567</v>
+        <v>646659</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>13528.4261910376</v>
+        <v>30904</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>73397.7692780148</v>
+        <v>752597</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>86732.0167619944</v>
+        <v>752597</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>14724.6714680014</v>
+        <v>50347</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>605.639167831925</v>
+        <v>1453</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>7753.10104174618</v>
+        <v>59507</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>9161.61480280282</v>
+        <v>59507</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>6793.52990509399</v>
+        <v>68713</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>1322.07554293073</v>
+        <v>5074.93955757864</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>3372.97453474001</v>
+        <v>16791.9175551451</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1435.22156086851</v>
+        <v>9574.12477924583</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>3945.1604032302</v>
+        <v>17660.6713150932</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>3572.42412191562</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>1803.40992696827</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>483.893346360814</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>842.683248054081</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>73955.1852551702</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <v>10565.0264650243</v>
-      </c>
-      <c r="U15" s="0" t="n">
-        <v>3521.67548834144</v>
-      </c>
-      <c r="V15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="0" t="n">
+        <v>19611.3467929373</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>96188.8587453876</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>23269.3461346704</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>43555.7951199419</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <f aca="false">B15*0.58*0.85</f>
+        <v>318802.887</v>
+      </c>
+      <c r="T15" s="2" t="n">
+        <f aca="false">B15*0.58*0.1</f>
+        <v>37506.222</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <f aca="false">B15*0.58*0.05</f>
+        <v>18753.111</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,81 +2509,84 @@
         <v>2004</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>187575.81656234</v>
+        <v>967235</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>9657.90448093907</v>
+        <v>49801</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>24779.4845147557</v>
+        <v>278764</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>29281.1986989245</v>
+        <v>278764</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>17500.9805406632</v>
+        <v>110710</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>181.633336114372</v>
+        <v>1149</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3595.00306027532</v>
+        <v>49615</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>4248.1109269436</v>
+        <v>49615</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>5363.67943924568</v>
+        <v>66247</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>1126.20385000613</v>
+        <v>4892.80806937424</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>2993.05357365362</v>
+        <v>16189.2824105438</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>1284.4996267326</v>
+        <v>9230.52470785293</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>3324.0626767239</v>
+        <v>17026.8579833653</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>3609.58961296012</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>2394.884528217</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>797.13813317593</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <v>1355.08525313209</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>55232.6430180968</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>7890.37757401382</v>
-      </c>
-      <c r="U16" s="0" t="n">
-        <v>2630.12585800461</v>
-      </c>
-      <c r="V16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="0" t="n">
+        <v>18907.5268288638</v>
+      </c>
+      <c r="P16" s="2" t="n">
+        <v>93376.6088724901</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>22589.0260169023</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>42282.3651106075</v>
+      </c>
+      <c r="S16" s="2" t="n">
+        <f aca="false">B16*0.58*0.85</f>
+        <v>476846.855</v>
+      </c>
+      <c r="T16" s="2" t="n">
+        <f aca="false">B16*0.58*0.1</f>
+        <v>56099.63</v>
+      </c>
+      <c r="U16" s="2" t="n">
+        <f aca="false">B16*0.58*0.05</f>
+        <v>28049.815</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2288,81 +2595,84 @@
         <v>2003</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>201991.142960473</v>
+        <v>1046474</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>6376.24577061279</v>
+        <v>33034</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3458.88273896776</v>
+        <v>39095</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>4087.26148825594</v>
+        <v>39095</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>16951.6441999687</v>
+        <v>105989</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>535.151775119072</v>
+        <v>3346</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>665.872509548579</v>
+        <v>9083</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>786.842246400771</v>
+        <v>9083</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>5234.01458184653</v>
+        <v>54729</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>836.500928092198</v>
+        <v>4042.1225539086</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>2539.97277552965</v>
+        <v>13374.5412931401</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>1208.26329800687</v>
+        <v>7625.66435817596</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>2403.71211371105</v>
+        <v>14066.4922271438</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>2450.27139941082</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>2258.34664684343</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>851.085174705158</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>1017.32640107853</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>45835.3953036208</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>6547.91361480297</v>
-      </c>
-      <c r="U17" s="0" t="n">
-        <v>2182.63787160099</v>
-      </c>
-      <c r="V17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="0" t="n">
+        <v>15620.1795676315</v>
+      </c>
+      <c r="P17" s="2" t="n">
+        <v>89597.2424360846</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>21674.7477218322</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>40571.0098420831</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <f aca="false">B17*0.58*0.85</f>
+        <v>515911.682</v>
+      </c>
+      <c r="T17" s="2" t="n">
+        <f aca="false">B17*0.58*0.1</f>
+        <v>60695.492</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <f aca="false">B17*0.58*0.05</f>
+        <v>30347.746</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2371,81 +2681,78 @@
         <v>2002</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>203476.168241953</v>
+        <v>1181780</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>8155.36917611428</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v>47366</v>
+      </c>
+      <c r="E18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>15636.6493489706</v>
+        <v>102183</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1315.25793091221</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="n">
+        <v>8595</v>
+      </c>
+      <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>9726.49863498152</v>
+        <v>64341</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>1007.62567341062</v>
+        <v>4752.0365298294</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>2680.0580445438</v>
+        <v>15723.4987180823</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>1366.72337711924</v>
+        <v>8964.95222769281</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>2107.40550205649</v>
+        <v>16536.9763084774</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>1927.51176189664</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>1809.14994570555</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>600.705817264189</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>839.647063935302</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <v>37117.4187495546</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>5302.48839279352</v>
-      </c>
-      <c r="U18" s="0" t="n">
-        <v>1767.49613093117</v>
-      </c>
-      <c r="V18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="0" t="n">
+        <v>18363.536215918</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>85447.9052337733</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>20670.9686475257</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>38692.1261187009</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <f aca="false">B18*0.58*0.85</f>
+        <v>582617.54</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <f aca="false">B18*0.58*0.1</f>
+        <v>68543.24</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <f aca="false">B18*0.58*0.05</f>
+        <v>34271.62</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2454,81 +2761,78 @@
         <v>2001</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>246880.297146156</v>
+        <v>1299796</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>2888.81404664751</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v>14979</v>
+      </c>
+      <c r="E19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>23295.3982625544</v>
+        <v>112624</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>590.91144243995</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="n">
+        <v>3356</v>
+      </c>
+      <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>10668.4173971783</v>
+        <v>76593</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>1534.3399965132</v>
+        <v>5656.93312085953</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>3580.1266585308</v>
+        <v>18717.6129888264</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>1824.47358577413</v>
+        <v>10672.0844558784</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>2446.72782198187</v>
+        <v>19685.9953434857</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>2446.72782198187</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>1396.18963451041</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>468.949190217235</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>814.298135930132</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <v>30565.3688143824</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>4366.48125919748</v>
-      </c>
-      <c r="U19" s="0" t="n">
-        <v>1455.49375306583</v>
-      </c>
-      <c r="V19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="0" t="n">
+        <v>21860.3740909499</v>
+      </c>
+      <c r="P19" s="2" t="n">
+        <v>81462.6061062975</v>
+      </c>
+      <c r="Q19" s="2" t="n">
+        <v>19706.8725343479</v>
+      </c>
+      <c r="R19" s="2" t="n">
+        <v>36887.5213593545</v>
+      </c>
+      <c r="S19" s="2" t="n">
+        <f aca="false">B19*0.58*0.85</f>
+        <v>640799.428</v>
+      </c>
+      <c r="T19" s="2" t="n">
+        <f aca="false">B19*0.58*0.1</f>
+        <v>75388.168</v>
+      </c>
+      <c r="U19" s="2" t="n">
+        <f aca="false">B19*0.58*0.05</f>
+        <v>37694.084</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2537,81 +2841,81 @@
         <v>2000</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>209779.592657248</v>
+        <v>1191685</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1727.24817201023</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
+        <v>9610</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>24973.3793967697</v>
+        <v>118794</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>118.842024551491</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="n">
+        <v>682</v>
+      </c>
+      <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>7301.79232428515</v>
+        <v>79098</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>1367.753528103</v>
+        <v>5841.94503405986</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>3191.424898907</v>
+        <v>19329.7788595588</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>3005.82137927546</v>
+        <v>11021.1185916608</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>1680.18345506245</v>
+        <v>20329.8324870292</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>1680.18345506245</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>907.926154074537</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>343.397750396778</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>607.945253011367</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>22094.6611819528</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>3156.3801688504</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>1052.12672295013</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="0" t="n">
+        <v>22575.3250276913</v>
+      </c>
+      <c r="P20" s="2" t="n">
+        <f aca="false">0.5*(P19+P21)</f>
+        <v>76122.2226663774</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <f aca="false">0.5*(Q19+Q21)</f>
+        <v>18414.9637584646</v>
+      </c>
+      <c r="R20" s="2" t="n">
+        <f aca="false">0.5*(R19+R21)</f>
+        <v>34469.3135751579</v>
+      </c>
+      <c r="S20" s="2" t="n">
+        <f aca="false">B20*0.58*0.85</f>
+        <v>587500.705</v>
+      </c>
+      <c r="T20" s="2" t="n">
+        <f aca="false">B20*0.58*0.1</f>
+        <v>69117.73</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <f aca="false">B20*0.58*0.05</f>
+        <v>34558.865</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2620,81 +2924,78 @@
         <v>1999</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>160714.669721434</v>
+        <v>1023240</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1580.04643873413</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0" t="n">
+        <v>9851</v>
+      </c>
+      <c r="E21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>18649.6858734225</v>
+        <v>98989</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>170.003707112615</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="n">
+        <v>1096</v>
+      </c>
+      <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>4370.84328902033</v>
+        <v>59322</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>935.462796881252</v>
+        <v>4381.34798996813</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>2182.74652605625</v>
+        <v>14496.9675782795</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>2253.68543557401</v>
+        <v>8265.62994126906</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>989.180177448266</v>
+        <v>15246.9888340483</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>989.180177448266</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>657.215524472442</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>106.361396498452</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>313.209836215945</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>15076.8652397217</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>2153.83789138882</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>717.945963796272</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="0" t="n">
+        <v>16931.0656564351</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>70781.8392264573</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>17123.0549825814</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>32051.1057909612</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <f aca="false">B21*0.58*0.85</f>
+        <v>504457.32</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <f aca="false">B21*0.58*0.1</f>
+        <v>59347.92</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <f aca="false">B21*0.58*0.05</f>
+        <v>29673.96</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2703,81 +3004,78 @@
         <v>1998</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>134948.75436511</v>
+        <v>1239984</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>109.327186987716</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
+        <v>982</v>
+      </c>
+      <c r="E22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>13421.8296010154</v>
+        <v>148750</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>18.3405757917492</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>3697.30406431992</v>
+        <v>71367</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>741.761158287122</v>
+        <v>5270.95617140446</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>1730.77603600329</v>
+        <v>17440.4956872504</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2253.19040030213</v>
+        <v>9943.91982769545</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>1048.21801239263</v>
+        <v>18342.8045601888</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>1048.21801239263</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>1087.94090610622</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>131.251356434717</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>389.827389639966</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>14140.3592211011</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <v>2020.05131730016</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>673.350439100055</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="0" t="n">
+        <v>20368.8237534608</v>
+      </c>
+      <c r="P22" s="2" t="n">
+        <v>60214.9548949741</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>14566.7871124618</v>
+      </c>
+      <c r="R22" s="2" t="n">
+        <v>27266.257992564</v>
+      </c>
+      <c r="S22" s="2" t="n">
+        <f aca="false">B22*0.58*0.85</f>
+        <v>611312.112</v>
+      </c>
+      <c r="T22" s="2" t="n">
+        <f aca="false">B22*0.58*0.1</f>
+        <v>71919.072</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <f aca="false">B22*0.58*0.05</f>
+        <v>35959.536</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,81 +3084,78 @@
         <v>1997</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>172500.502353433</v>
+        <v>1599517</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>101.600050595627</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="n">
+        <v>924</v>
+      </c>
+      <c r="E23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>16949.0503348582</v>
+        <v>202171</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>14.264610711863</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>2469.91554268622</v>
+        <v>66084</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>717.512324992388</v>
+        <v>4880.76937003226</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>1674.19542498224</v>
+        <v>16149.4488628674</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>2077.11398566085</v>
+        <v>9207.81310540482</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>1119.61009476532</v>
+        <v>16984.9635903922</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>1119.61009476532</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>908.903451452548</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>106.209961165416</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>359.421760473006</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>11191.6314109893</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>1598.80448728419</v>
-      </c>
-      <c r="U23" s="0" t="n">
-        <v>532.934829094731</v>
-      </c>
-      <c r="V23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="0" t="n">
+        <v>18861.0050713033</v>
+      </c>
+      <c r="P23" s="2" t="n">
+        <v>51248.7741550951</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>12397.7504291747</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>23206.2334075102</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <f aca="false">B23*0.58*0.85</f>
+        <v>788561.881</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <f aca="false">B23*0.58*0.1</f>
+        <v>92771.986</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <f aca="false">B23*0.58*0.05</f>
+        <v>46385.993</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2869,81 +3164,78 @@
         <v>1996</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>138276.660978346</v>
+        <v>1421342</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>625.856620709273</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0" t="n">
+        <v>6333</v>
+      </c>
+      <c r="E24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>15387.8198436504</v>
+        <v>200626</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>90.7701488379956</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="0" t="n">
+        <v>1314</v>
+      </c>
+      <c r="I24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>3169.63598785564</v>
+        <v>42687</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>580.729822613992</v>
+        <v>3152.7359436258</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>1355.03625276599</v>
+        <v>10431.7463169484</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>1606.46274086094</v>
+        <v>5947.79247670261</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>875.641572751417</v>
+        <v>10971.4475634506</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>875.641572751417</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>1104.89410761768</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>45.0481135026345</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>364.517019151712</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>6862.12804879492</v>
-      </c>
-      <c r="T24" s="0" t="n">
-        <v>980.304006970703</v>
-      </c>
-      <c r="U24" s="0" t="n">
-        <v>326.768002323568</v>
-      </c>
-      <c r="V24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="0" t="n">
+        <v>12183.2776992725</v>
+      </c>
+      <c r="P24" s="2" t="n">
+        <v>43617.6836299376</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>10551.6895741965</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>19750.7582122457</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <f aca="false">B24*0.58*0.85</f>
+        <v>700721.606</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <f aca="false">B24*0.58*0.1</f>
+        <v>82437.836</v>
+      </c>
+      <c r="U24" s="2" t="n">
+        <f aca="false">B24*0.58*0.05</f>
+        <v>41218.918</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2952,81 +3244,78 @@
         <v>1995</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>110657.566676403</v>
+        <v>1381192</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>2641.74191114481</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="0" t="n">
+        <v>32808</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>11194.9238385035</v>
+        <v>176482</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>482.078352079234</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="0" t="n">
+        <v>7898</v>
+      </c>
+      <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>3281.56023982825</v>
+        <v>52356</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>786.411885534987</v>
+        <v>3866.85977146373</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>1834.96106624829</v>
+        <v>12794.6332646977</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>2081.73946852151</v>
+        <v>7295.02244032708</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>1119.67548238109</v>
+        <v>13456.581831284</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>1119.67548238109</v>
-      </c>
-      <c r="P25" s="0" t="n">
-        <v>923.945422010804</v>
-      </c>
-      <c r="Q25" s="0" t="n">
-        <v>43.0376414385874</v>
-      </c>
-      <c r="R25" s="0" t="n">
-        <v>497.660614381414</v>
-      </c>
-      <c r="S25" s="0" t="n">
-        <v>4493.9535622832</v>
-      </c>
-      <c r="T25" s="0" t="n">
-        <v>641.993366040458</v>
-      </c>
-      <c r="U25" s="0" t="n">
-        <v>213.997788680153</v>
-      </c>
-      <c r="V25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="0" t="n">
+        <v>14942.9026922274</v>
+      </c>
+      <c r="P25" s="2" t="n">
+        <v>37122.8845295646</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>8980.5125136414</v>
+      </c>
+      <c r="R25" s="2" t="n">
+        <v>16809.8132561377</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <f aca="false">B25*0.58*0.85</f>
+        <v>680927.656</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <f aca="false">B25*0.58*0.1</f>
+        <v>80109.136</v>
+      </c>
+      <c r="U25" s="2" t="n">
+        <f aca="false">B25*0.58*0.05</f>
+        <v>40054.568</v>
+      </c>
+      <c r="V25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3035,81 +3324,78 @@
         <v>1994</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>73225.6456262611</v>
+        <v>1013410</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>8664.0653797237</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0" t="n">
+        <v>119203</v>
+      </c>
+      <c r="E26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>6153.73714287282</v>
+        <v>114075</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1160.32114911604</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="0" t="n">
+        <v>22631</v>
+      </c>
+      <c r="I26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>2713.07722164335</v>
+        <v>58752</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>589.179374066157</v>
+        <v>4339.2494707968</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>1374.75187282103</v>
+        <v>14357.6723502086</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>1418.96658164132</v>
+        <v>8186.20900019285</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>954.397069844238</v>
+        <v>15100.4869690503</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>954.397069844238</v>
-      </c>
-      <c r="P26" s="0" t="n">
-        <v>508.648457932455</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>17.885379256329</v>
-      </c>
-      <c r="R26" s="0" t="n">
-        <v>259.953725387892</v>
-      </c>
-      <c r="S26" s="0" t="n">
-        <v>2438.96989770684</v>
-      </c>
-      <c r="T26" s="0" t="n">
-        <v>348.424271100977</v>
-      </c>
-      <c r="U26" s="0" t="n">
-        <v>116.141423700326</v>
-      </c>
-      <c r="V26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="0" t="n">
+        <v>16768.3822097514</v>
+      </c>
+      <c r="P26" s="2" t="n">
+        <v>31595.1797781738</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>7643.28825640336</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>14306.7835001406</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <f aca="false">B26*0.58*0.85</f>
+        <v>499611.13</v>
+      </c>
+      <c r="T26" s="2" t="n">
+        <f aca="false">B26*0.58*0.1</f>
+        <v>58777.78</v>
+      </c>
+      <c r="U26" s="2" t="n">
+        <f aca="false">B26*0.58*0.05</f>
+        <v>29388.89</v>
+      </c>
+      <c r="V26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3118,81 +3404,78 @@
         <v>1993</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>46716.9911231359</v>
+        <v>679685</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>15721.3666438948</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0" t="n">
+        <v>227289</v>
+      </c>
+      <c r="E27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>4480.09236591283</v>
+        <v>84913</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1855.72613432386</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="0" t="n">
+        <v>36946</v>
+      </c>
+      <c r="I27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>1342.2041690784</v>
+        <v>48922</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>447.301713352054</v>
+        <v>3613.23465771924</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>1043.70399782145</v>
+        <v>11955.4406099691</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>1089.74690947486</v>
+        <v>6816.54610408896</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>741.407278239307</v>
+        <v>12573.9723498754</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>741.407278239307</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>711.180719965075</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>34.6668174538076</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>356.337150834717</v>
-      </c>
-      <c r="S27" s="0" t="n">
-        <v>1233.92778327851</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>176.275397611216</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>58.7584658704053</v>
-      </c>
-      <c r="V27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="0" t="n">
+        <v>13962.8062783473</v>
+      </c>
+      <c r="P27" s="2" t="n">
+        <v>26890.5662333462</v>
+      </c>
+      <c r="Q27" s="2" t="n">
+        <v>6505.1805541982</v>
+      </c>
+      <c r="R27" s="2" t="n">
+        <v>12176.4621058571</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <f aca="false">B27*0.58*0.85</f>
+        <v>335084.705</v>
+      </c>
+      <c r="T27" s="2" t="n">
+        <f aca="false">B27*0.58*0.1</f>
+        <v>39421.73</v>
+      </c>
+      <c r="U27" s="2" t="n">
+        <f aca="false">B27*0.58*0.05</f>
+        <v>19710.865</v>
+      </c>
+      <c r="V27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3201,81 +3484,78 @@
         <v>1992</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>26613.2854185471</v>
+        <v>434173</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>10163.5269808827</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0" t="n">
+        <v>164840</v>
+      </c>
+      <c r="E28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3139.33673880713</v>
+        <v>64754</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1430.50410779948</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
+        <v>30663</v>
+      </c>
+      <c r="I28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>1347.19413318116</v>
+        <v>29045</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>329.373764771552</v>
+        <v>2145.17805145855</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>768.538784466959</v>
+        <v>7097.94719178596</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>771.300418330159</v>
+        <v>4046.98462027848</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>456.756844855513</v>
+        <v>7465.16959450004</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>456.756844855513</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>873.817230664757</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>39.2605750717141</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>545.568030457331</v>
-      </c>
-      <c r="S28" s="0" t="n">
-        <v>872.95168926001</v>
-      </c>
-      <c r="T28" s="0" t="n">
-        <v>124.707384180001</v>
-      </c>
-      <c r="U28" s="0" t="n">
-        <v>41.5691280600005</v>
-      </c>
-      <c r="V28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="0" t="n">
+        <v>8289.72054197696</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>22886.4832365824</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>5536.54037675027</v>
+      </c>
+      <c r="R28" s="2" t="n">
+        <v>10363.3517215045</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <f aca="false">B28*0.58*0.85</f>
+        <v>214047.289</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <f aca="false">B28*0.58*0.1</f>
+        <v>25182.034</v>
+      </c>
+      <c r="U28" s="2" t="n">
+        <f aca="false">B28*0.58*0.05</f>
+        <v>12591.017</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3284,81 +3564,78 @@
         <v>1991</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>25746.8767012709</v>
+        <v>474069</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>7097.5360014802</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0" t="n">
+        <v>129139</v>
+      </c>
+      <c r="E29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3019.95093786742</v>
+        <v>72189</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>847.920051620108</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="0" t="n">
+        <v>21843</v>
+      </c>
+      <c r="I29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>1314.65613715291</v>
+        <v>33902</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>581.664881858018</v>
+        <v>2503.90174902902</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>1357.2180576687</v>
+        <v>8284.88916150551</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>1113.11903879412</v>
+        <v>4723.73463923846</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>448.514751728319</v>
+        <v>8713.51969677192</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>448.514751728319</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>831.679222547673</v>
-      </c>
-      <c r="Q29" s="0" t="n">
-        <v>58.7008660997856</v>
-      </c>
-      <c r="R29" s="0" t="n">
-        <v>564.765882675144</v>
-      </c>
-      <c r="S29" s="0" t="n">
-        <v>1604.65015924832</v>
-      </c>
-      <c r="T29" s="0" t="n">
-        <v>229.235737035474</v>
-      </c>
-      <c r="U29" s="0" t="n">
-        <v>76.4119123451581</v>
-      </c>
-      <c r="V29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="0" t="n">
+        <v>9675.95475345508</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>19478.6197655008</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>4712.13352004557</v>
+      </c>
+      <c r="R29" s="2" t="n">
+        <v>8820.21871130772</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <f aca="false">B29*0.58*0.85</f>
+        <v>233716.017</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <f aca="false">B29*0.58*0.1</f>
+        <v>27496.002</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <f aca="false">B29*0.58*0.05</f>
+        <v>13748.001</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3367,81 +3644,78 @@
         <v>1990</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>22473.3171778893</v>
+        <v>463464</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>3412.88742987066</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0" t="n">
+        <v>70250</v>
+      </c>
+      <c r="E30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2876.03770573494</v>
+        <v>79391</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>420.853854385982</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="0" t="n">
+        <v>11746</v>
+      </c>
+      <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>1356.95345822051</v>
+        <v>35431</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>478.420267118224</v>
+        <v>2616.82918027984</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>1116.31395660919</v>
+        <v>8658.54250136575</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>982.545774531108</v>
+        <v>4936.7778303008</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>387.572836171806</v>
+        <v>9106.50452410849</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>387.572836171806</v>
-      </c>
-      <c r="P30" s="0" t="n">
-        <v>309.252750845458</v>
-      </c>
-      <c r="Q30" s="0" t="n">
-        <v>30.8930947774861</v>
-      </c>
-      <c r="R30" s="0" t="n">
-        <v>290.061585907931</v>
-      </c>
-      <c r="S30" s="0" t="n">
-        <v>1629.40458667385</v>
-      </c>
-      <c r="T30" s="0" t="n">
-        <v>232.77208381055</v>
-      </c>
-      <c r="U30" s="0" t="n">
-        <v>77.5906946035168</v>
-      </c>
-      <c r="V30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="0" t="n">
+        <v>10112.3459639451</v>
+      </c>
+      <c r="P30" s="2" t="n">
+        <v>16578.1970102986</v>
+      </c>
+      <c r="Q30" s="2" t="n">
+        <v>4010.48322594733</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>7506.86266431269</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <f aca="false">B30*0.58*0.85</f>
+        <v>228487.752</v>
+      </c>
+      <c r="T30" s="2" t="n">
+        <f aca="false">B30*0.58*0.1</f>
+        <v>26880.912</v>
+      </c>
+      <c r="U30" s="2" t="n">
+        <f aca="false">B30*0.58*0.05</f>
+        <v>13440.456</v>
+      </c>
+      <c r="V30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,81 +3724,78 @@
         <v>1989</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>9660.09824337154</v>
+        <v>222551</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>15107.476707421</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0" t="n">
+        <v>345658</v>
+      </c>
+      <c r="E31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1212.11024734854</v>
+        <v>38270</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1640.9447937785</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
+        <v>53871</v>
+      </c>
+      <c r="I31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>944.23408456827</v>
+        <v>42590</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>522.802653416582</v>
+        <v>3145.57180966155</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>1219.87285797202</v>
+        <v>10408.0416904171</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>1184.20664199072</v>
+        <v>5934.27698322122</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>365.489300956268</v>
+        <v>10946.5165443194</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>365.489300956268</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>214.895317730917</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>26.2406244219358</v>
-      </c>
-      <c r="R31" s="0" t="n">
-        <v>173.62658059795</v>
-      </c>
-      <c r="S31" s="0" t="n">
-        <v>1828.98148033978</v>
-      </c>
-      <c r="T31" s="0" t="n">
-        <v>261.283068619968</v>
-      </c>
-      <c r="U31" s="0" t="n">
-        <v>87.094356206656</v>
-      </c>
-      <c r="V31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="0" t="n">
+        <v>12155.5929723807</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>14109.655582427</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>3413.3106876499</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>6389.06912689204</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <f aca="false">B31*0.58*0.85</f>
+        <v>109717.643</v>
+      </c>
+      <c r="T31" s="2" t="n">
+        <f aca="false">B31*0.58*0.1</f>
+        <v>12907.958</v>
+      </c>
+      <c r="U31" s="2" t="n">
+        <f aca="false">B31*0.58*0.05</f>
+        <v>6453.979</v>
+      </c>
+      <c r="V31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3533,81 +3804,78 @@
         <v>1988</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2565.76225460788</v>
+        <v>65698</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>19501.0456157448</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
+        <v>492642</v>
+      </c>
+      <c r="E32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>335.429203184742</v>
+        <v>11614</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1986.01396244029</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="0" t="n">
+        <v>73840</v>
+      </c>
+      <c r="I32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>476.216496665927</v>
+        <v>34840</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>537.478608095787</v>
+        <v>2573.17966303378</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>1254.11675222352</v>
+        <v>8514.11534383966</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>1279.10249678994</v>
+        <v>4854.43085455336</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>345.932682882312</v>
+        <v>8954.60522197905</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>345.932682882312</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>368.745447373897</v>
-      </c>
-      <c r="Q32" s="0" t="n">
-        <v>36.5039589661176</v>
-      </c>
-      <c r="R32" s="0" t="n">
-        <v>282.678792739693</v>
-      </c>
-      <c r="S32" s="0" t="n">
-        <v>1700.23948143951</v>
-      </c>
-      <c r="T32" s="0" t="n">
-        <v>242.891354491358</v>
-      </c>
-      <c r="U32" s="0" t="n">
-        <v>80.9637848304528</v>
-      </c>
-      <c r="V32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="0" t="n">
+        <v>9943.66891659416</v>
+      </c>
+      <c r="P32" s="2" t="n">
+        <v>12008.6871045773</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>2905.05886548696</v>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v>5437.71827640628</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <f aca="false">B32*0.58*0.85</f>
+        <v>32389.114</v>
+      </c>
+      <c r="T32" s="2" t="n">
+        <f aca="false">B32*0.58*0.1</f>
+        <v>3810.484</v>
+      </c>
+      <c r="U32" s="2" t="n">
+        <f aca="false">B32*0.58*0.05</f>
+        <v>1905.242</v>
+      </c>
+      <c r="V32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3616,81 +3884,78 @@
         <v>1987</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>766.979248904544</v>
+        <v>24752</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>12864.146494276</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
+        <v>387785</v>
+      </c>
+      <c r="E33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>182.965480308892</v>
+        <v>6437</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1614.0282013876</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
+        <v>70898</v>
+      </c>
+      <c r="I33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>474.708528684071</v>
+        <v>22858</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>513.857283591395</v>
+        <v>1688.22447582164</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>1199.00032837992</v>
+        <v>5585.98302323441</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>1210.29684907349</v>
+        <v>3184.91907214066</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>282.444275005892</v>
+        <v>5874.98180723298</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>282.444275005892</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <v>237.103757204413</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>41.0859182331315</v>
-      </c>
-      <c r="R33" s="0" t="n">
-        <v>238.506470271845</v>
-      </c>
-      <c r="S33" s="0" t="n">
-        <v>1693.60337080268</v>
-      </c>
-      <c r="T33" s="0" t="n">
-        <v>241.943338686098</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <v>80.6477795620325</v>
-      </c>
-      <c r="V33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="0" t="n">
+        <v>6523.8916215703</v>
+      </c>
+      <c r="P33" s="2" t="n">
+        <v>10220.5589026033</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>2472.48720794151</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>4628.02631593167</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <f aca="false">B33*0.58*0.85</f>
+        <v>12202.736</v>
+      </c>
+      <c r="T33" s="2" t="n">
+        <f aca="false">B33*0.58*0.1</f>
+        <v>1435.616</v>
+      </c>
+      <c r="U33" s="2" t="n">
+        <f aca="false">B33*0.58*0.05</f>
+        <v>717.808</v>
+      </c>
+      <c r="V33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3699,81 +3964,78 @@
         <v>1986</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1550.20816830401</v>
+        <v>54384</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>18081.6743238217</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0" t="n">
+        <v>620221</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>172.6702158605</v>
+        <v>7533</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1521.95231411206</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="0" t="n">
+        <v>76828</v>
+      </c>
+      <c r="I34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>379.390186485312</v>
+        <v>26673</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>689.337586341995</v>
+        <v>1969.98912606487</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>1608.45436813132</v>
+        <v>6518.28354093672</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>1274.17996701503</v>
+        <v>3716.48203741394</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>295.737792762875</v>
+        <v>6855.51621945601</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>295.737792762875</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>204.414076278002</v>
-      </c>
-      <c r="Q34" s="0" t="n">
-        <v>28.500262278615</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <v>189.770039074681</v>
-      </c>
-      <c r="S34" s="0" t="n">
-        <v>1442.19518192455</v>
-      </c>
-      <c r="T34" s="0" t="n">
-        <v>206.027883132079</v>
-      </c>
-      <c r="U34" s="0" t="n">
-        <v>68.6759610440263</v>
-      </c>
-      <c r="V34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="0" t="n">
+        <v>7612.72907612847</v>
+      </c>
+      <c r="P34" s="2" t="n">
+        <v>8698.68815565755</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>2104.32671986826</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>3938.89982750474</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <f aca="false">B34*0.58*0.85</f>
+        <v>26811.312</v>
+      </c>
+      <c r="T34" s="2" t="n">
+        <f aca="false">B34*0.58*0.1</f>
+        <v>3154.272</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <f aca="false">B34*0.58*0.05</f>
+        <v>1577.136</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3782,81 +4044,78 @@
         <v>1985</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>611.167000294595</v>
+        <v>24321</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>14790.0009513363</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0" t="n">
+        <v>578725</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>77.1014031680222</v>
+        <v>4332</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1090.62144384681</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="0" t="n">
+        <v>66826</v>
+      </c>
+      <c r="I35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>354.612951449699</v>
+        <v>25592</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>497.884982979974</v>
+        <v>1890.14965374169</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>1161.73162695327</v>
+        <v>6254.1113627883</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>766.32327043515</v>
+        <v>3565.86091933781</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>194.120218990047</v>
+        <v>6577.6767175915</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>194.120218990047</v>
-      </c>
-      <c r="P35" s="0" t="n">
-        <v>186.417629294421</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>16.743602097587</v>
-      </c>
-      <c r="R35" s="0" t="n">
-        <v>118.489996032181</v>
-      </c>
-      <c r="S35" s="0" t="n">
-        <v>1260.62058655367</v>
-      </c>
-      <c r="T35" s="0" t="n">
-        <v>180.088655221953</v>
-      </c>
-      <c r="U35" s="0" t="n">
-        <v>60.0295517406511</v>
-      </c>
-      <c r="V35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="0" t="n">
+        <v>7304.20134654069</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>7403.42835949053</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>1790.98639205427</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>3352.38626403393</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <f aca="false">B35*0.58*0.85</f>
+        <v>11990.253</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <f aca="false">B35*0.58*0.1</f>
+        <v>1410.618</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <f aca="false">B35*0.58*0.05</f>
+        <v>705.309</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3865,81 +4124,78 @@
         <v>1984</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>636.870040588201</v>
+        <v>29012</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>11186.0991276176</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
+        <v>503904</v>
+      </c>
+      <c r="E36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>64.2621801200751</v>
+        <v>4469</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>827.595919414214</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="0" t="n">
+        <v>61632</v>
+      </c>
+      <c r="I36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>308.830804425445</v>
+        <v>28675</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>381.723256015518</v>
+        <v>2117.85094252278</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>890.68759736955</v>
+        <v>7007.52748233646</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>523.484188914621</v>
+        <v>3995.43067607111</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>147.070662254179</v>
+        <v>7370.07189265928</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>147.070662254179</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>83.6156039225998</v>
-      </c>
-      <c r="Q36" s="0" t="n">
-        <v>14.7006655804251</v>
-      </c>
-      <c r="R36" s="0" t="n">
-        <v>84.6847432375392</v>
-      </c>
-      <c r="S36" s="0" t="n">
-        <v>1265.47940253129</v>
-      </c>
-      <c r="T36" s="0" t="n">
-        <v>180.782771790185</v>
-      </c>
-      <c r="U36" s="0" t="n">
-        <v>60.2609239300616</v>
-      </c>
-      <c r="V36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="0" t="n">
+        <v>8184.11900641038</v>
+      </c>
+      <c r="P36" s="2" t="n">
+        <v>6301.03648887106</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>1524.30334426605</v>
+      </c>
+      <c r="R36" s="2" t="n">
+        <v>2853.20626455302</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <f aca="false">B36*0.58*0.85</f>
+        <v>14302.916</v>
+      </c>
+      <c r="T36" s="2" t="n">
+        <f aca="false">B36*0.58*0.1</f>
+        <v>1682.696</v>
+      </c>
+      <c r="U36" s="2" t="n">
+        <f aca="false">B36*0.58*0.05</f>
+        <v>841.348</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3948,81 +4204,78 @@
         <v>1983</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1398.23411581127</v>
+        <v>70837</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>10739.4026389755</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="0" t="n">
+        <v>538834</v>
+      </c>
+      <c r="E37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>98.8915171278219</v>
+        <v>7773</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>475.039098766478</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="0" t="n">
+        <v>40494</v>
+      </c>
+      <c r="I37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>472.731629809298</v>
+        <v>28183</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>286.162521321735</v>
+        <v>2081.51327334331</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>667.712549750718</v>
+        <v>6887.29370652793</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>407.930582390886</v>
+        <v>3926.87786377374</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>109.193786645498</v>
+        <v>7243.61765129264</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>109.193786645498</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>63.5451824642216</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>8.63279802629356</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>89.1623074344749</v>
-      </c>
-      <c r="S37" s="0" t="n">
-        <v>1385.69994577177</v>
-      </c>
-      <c r="T37" s="0" t="n">
-        <v>197.957135110253</v>
-      </c>
-      <c r="U37" s="0" t="n">
-        <v>65.9857117034177</v>
-      </c>
-      <c r="V37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="0" t="n">
+        <v>8043.69750506238</v>
+      </c>
+      <c r="P37" s="2" t="n">
+        <v>5362.79395250563</v>
+      </c>
+      <c r="Q37" s="2" t="n">
+        <v>1297.33017271872</v>
+      </c>
+      <c r="R37" s="2" t="n">
+        <v>2428.3556090845</v>
+      </c>
+      <c r="S37" s="2" t="n">
+        <f aca="false">B37*0.58*0.85</f>
+        <v>34922.641</v>
+      </c>
+      <c r="T37" s="2" t="n">
+        <f aca="false">B37*0.58*0.1</f>
+        <v>4108.546</v>
+      </c>
+      <c r="U37" s="2" t="n">
+        <f aca="false">B37*0.58*0.05</f>
+        <v>2054.273</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4031,81 +4284,78 @@
         <v>1982</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>5838.67049659684</v>
+        <v>346479</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>3589.31077205965</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0" t="n">
+        <v>212060</v>
+      </c>
+      <c r="E38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>204.74328543763</v>
+        <v>18920</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>203.258930797426</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="0" t="n">
+        <v>20515</v>
+      </c>
+      <c r="I38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>321.167472305114</v>
+        <v>43331</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>320.923929245075</v>
+        <v>3200.29988458429</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>748.822501571842</v>
+        <v>10589.1254869092</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>459.844389314878</v>
+        <v>6037.52420662031</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>99.5512811416405</v>
+        <v>11136.9689688167</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>99.5512811416405</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <v>75.3663248373183</v>
-      </c>
-      <c r="Q38" s="0" t="n">
-        <v>11.3396446532682</v>
-      </c>
-      <c r="R38" s="0" t="n">
-        <v>83.3379257801383</v>
-      </c>
-      <c r="S38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="0" t="n">
+        <v>12367.0814530695</v>
+      </c>
+      <c r="P38" s="2" t="n">
+        <v>4564.25844030999</v>
+      </c>
+      <c r="Q38" s="2" t="n">
+        <v>1104.15396212149</v>
+      </c>
+      <c r="R38" s="2" t="n">
+        <v>2066.76644357359</v>
+      </c>
+      <c r="S38" s="2" t="n">
+        <f aca="false">B38*0.58*0.85</f>
+        <v>170814.147</v>
+      </c>
+      <c r="T38" s="2" t="n">
+        <f aca="false">B38*0.58*0.1</f>
+        <v>20095.782</v>
+      </c>
+      <c r="U38" s="2" t="n">
+        <f aca="false">B38*0.58*0.05</f>
+        <v>10047.891</v>
+      </c>
+      <c r="V38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4114,81 +4364,78 @@
         <v>1981</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>4634.06812224171</v>
+        <v>320421</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1869.71787420379</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="0" t="n">
+        <v>128774</v>
+      </c>
+      <c r="E39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>219.110147870912</v>
+        <v>24007</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>64.8887950641284</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="0" t="n">
+        <v>7468</v>
+      </c>
+      <c r="I39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>153.52884278861</v>
+        <v>34222</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>389.044695810972</v>
+        <v>2527.53600540591</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>907.770956892267</v>
+        <v>8363.08999129968</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>614.983143519719</v>
+        <v>4768.32183422861</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>106.924086901363</v>
+        <v>8795.76635782339</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>106.924086901363</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <v>73.8875873370809</v>
-      </c>
-      <c r="Q39" s="0" t="n">
-        <v>21.6459732555875</v>
-      </c>
-      <c r="R39" s="0" t="n">
-        <v>69.7068874893</v>
-      </c>
-      <c r="S39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="0" t="n">
+        <v>9767.2858112424</v>
+      </c>
+      <c r="P39" s="2" t="n">
+        <v>3884.62717278324</v>
+      </c>
+      <c r="Q39" s="2" t="n">
+        <v>939.742247352254</v>
+      </c>
+      <c r="R39" s="2" t="n">
+        <v>1759.01894940841</v>
+      </c>
+      <c r="S39" s="2" t="n">
+        <f aca="false">B39*0.58*0.85</f>
+        <v>157967.553</v>
+      </c>
+      <c r="T39" s="2" t="n">
+        <f aca="false">B39*0.58*0.1</f>
+        <v>18584.418</v>
+      </c>
+      <c r="U39" s="2" t="n">
+        <f aca="false">B39*0.58*0.05</f>
+        <v>9292.209</v>
+      </c>
+      <c r="V39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4197,81 +4444,78 @@
         <v>1980</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>7448.92885839168</v>
+        <v>570249</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2975.38619061805</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="0" t="n">
+        <v>226534</v>
+      </c>
+      <c r="E40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>446.32414813408</v>
+        <v>56218</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>106.678570369857</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="0" t="n">
+        <v>14109</v>
+      </c>
+      <c r="I40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>105.476376319807</v>
+        <v>19074</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>618.479493487269</v>
+        <v>1408.74939416493</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>1443.11881813696</v>
+        <v>4661.25821091842</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>617.795330708388</v>
+        <v>2657.67549138205</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>148.448688520033</v>
+        <v>4902.41504029932</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>148.448688520033</v>
-      </c>
-      <c r="P40" s="0" t="n">
-        <v>104.868153904845</v>
-      </c>
-      <c r="Q40" s="0" t="n">
-        <v>13.1111855583792</v>
-      </c>
-      <c r="R40" s="0" t="n">
-        <v>73.6259904864516</v>
-      </c>
-      <c r="S40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="0" t="n">
+        <v>5443.90186323528</v>
+      </c>
+      <c r="P40" s="2" t="n">
+        <v>3306.19496438966</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>799.811911883987</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>1497.09594618145</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <f aca="false">B40*0.58*0.85</f>
+        <v>281132.757</v>
+      </c>
+      <c r="T40" s="2" t="n">
+        <f aca="false">B40*0.58*0.1</f>
+        <v>33074.442</v>
+      </c>
+      <c r="U40" s="2" t="n">
+        <f aca="false">B40*0.58*0.05</f>
+        <v>16537.221</v>
+      </c>
+      <c r="V40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4280,81 +4524,78 @@
         <v>1979</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>9407.08962771602</v>
+        <v>829919</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>25.8493440043741</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="0" t="n">
+        <v>2276</v>
+      </c>
+      <c r="E41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>517.782534749321</v>
+        <v>75787</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>5.50818581588105</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="0" t="n">
+        <v>838</v>
+      </c>
+      <c r="I41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>24.2731292096254</v>
+        <v>15396</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>395.074326094441</v>
+        <v>1137.10315993307</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>921.840094220363</v>
+        <v>3762.43742347174</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>1031.46766733532</v>
+        <v>2145.20141896393</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>108.829884484759</v>
+        <v>3957.09247983896</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>108.829884484759</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>96.2191998582258</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>13.0872858044713</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <v>56.0752014499431</v>
-      </c>
-      <c r="S41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="0" t="n">
+        <v>4394.1655177923</v>
+      </c>
+      <c r="P41" s="2" t="n">
+        <v>2813.89298286863</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>680.717607614093</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>1274.17403480884</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <f aca="false">B41*0.58*0.85</f>
+        <v>409150.067</v>
+      </c>
+      <c r="T41" s="2" t="n">
+        <f aca="false">B41*0.58*0.1</f>
+        <v>48135.302</v>
+      </c>
+      <c r="U41" s="2" t="n">
+        <f aca="false">B41*0.58*0.05</f>
+        <v>24067.651</v>
+      </c>
+      <c r="V41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,17 +4613,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="1" sqref="I2:I17 N2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="17.67"/>
@@ -4398,93 +4639,91 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="15.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="AA1" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6514,17 +6753,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AA41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.67"/>
@@ -6551,85 +6790,85 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9964,65 +10203,96 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="I2:I17 D24"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>81</v>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.84</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3148464880</v>
+        <f aca="false">E2*1000</f>
+        <v>11437951000</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>11437.951</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">D2*1000</f>
+        <v>11437951</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.809</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4646241104</v>
+        <f aca="false">E3*1000</f>
+        <v>8374256697</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>8374.256697</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">D3*1000</f>
+        <v>8374256.697</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.75425</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3871867587</v>
+        <f aca="false">E4*1000</f>
+        <v>7436237000</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>7436.237</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">D4*1000</f>
+        <v>7436237</v>
       </c>
     </row>
   </sheetData>
@@ -10037,139 +10307,139 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="1" sqref="I2:I17 S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
+      <c r="A1" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="5" t="n">
         <v>268545</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="5" t="n">
         <v>268545</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="5" t="n">
         <v>268545</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="5" t="n">
         <v>268545</v>
       </c>
       <c r="N2" s="0" t="n">
@@ -10187,31 +10457,31 @@
       <c r="R2" s="0" t="n">
         <v>268545</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="5" t="n">
         <v>1036035</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="5" t="n">
         <v>1036035</v>
       </c>
     </row>
@@ -11140,24 +11410,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="I2:I17 B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11257,8 +11527,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
